--- a/biology/Histoire de la zoologie et de la botanique/Charles_de_Souancé/Charles_de_Souancé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_de_Souancé/Charles_de_Souancé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_de_Souanc%C3%A9</t>
+          <t>Charles_de_Souancé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Charles Gabriel Hubert Guillier de Souancé est un commissaire de la marine et ornithologue français, né le 20 mai 1823 au château de Montdoucet à Souancé-au-Perche et mort le 23 janvier 1896 à Hyères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_de_Souanc%C3%A9</t>
+          <t>Charles_de_Souancé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travailla sur la collection d'oiseaux de son oncle, François Victor Masséna. Ensemble, ils sont les auteurs de quelques espèces de Psittacidae.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_de_Souanc%C3%A9</t>
+          <t>Charles_de_Souancé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Iconographie des perroquets, non figurés dans les publications de Levaillant et de M. Bourjot Saint-Hilaire, Paris, P. Bertrand, 1857 (lire en ligne)</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_de_Souanc%C3%A9</t>
+          <t>Charles_de_Souancé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bo Beolens et Charles Watkins (2003). Whose Bird ? Common Bird Names and the people They Commemorate, Yale University Press (New Haven, Connecticut) : 400 p.  (ISBN 0-300-10359-X)</t>
         </is>
